--- a/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\OneDrive - Education Vaud\2ndYear\PROJ\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>No semaine</t>
   </si>
@@ -933,7 +933,7 @@
   <dimension ref="B1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,13 +1363,23 @@
       <c r="G7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
+      <c r="K7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="O7" s="39"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="39"/>
@@ -1405,13 +1415,25 @@
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="K8" s="39"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="L8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="P8" s="40"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="Q8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="41"/>
@@ -1443,13 +1465,25 @@
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="39"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="L9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="P9" s="40"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="Q9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>

--- a/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>No semaine</t>
   </si>
@@ -933,7 +933,7 @@
   <dimension ref="B1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,9 @@
       <c r="R8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="24"/>
+      <c r="S8" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="T8" s="24"/>
       <c r="U8" s="41"/>
       <c r="V8" s="39"/>
@@ -1484,7 +1486,9 @@
       <c r="R9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="24"/>
+      <c r="S9" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="39"/>
@@ -1560,7 +1564,9 @@
       <c r="P11" s="40"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
-      <c r="S11" s="24"/>
+      <c r="S11" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>

--- a/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839F3DF-B98B-406B-B0A9-510FFCCBC988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>No semaine</t>
   </si>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -502,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -515,17 +516,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,13 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -926,25 +921,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="55" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" customWidth="1"/>
+    <col min="2" max="2" width="36.73046875" customWidth="1"/>
+    <col min="3" max="55" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:36" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1257,7 +1252,7 @@
       </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1297,7 @@
       <c r="AI5" s="30"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1345,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="37"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1397,7 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="43"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1432,9 @@
       <c r="S8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="24"/>
+      <c r="T8" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="U8" s="41"/>
       <c r="V8" s="39"/>
       <c r="W8" s="39"/>
@@ -1454,7 +1451,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="43"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P9" s="40"/>
       <c r="Q9" s="24" t="s">
@@ -1489,7 +1486,9 @@
       <c r="S9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="24"/>
+      <c r="T9" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="U9" s="24"/>
       <c r="V9" s="39"/>
       <c r="W9" s="39"/>
@@ -1506,7 +1505,7 @@
       <c r="AH9" s="39"/>
       <c r="AI9" s="43"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1543,7 @@
       <c r="AH10" s="39"/>
       <c r="AI10" s="43"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
@@ -1567,24 +1566,26 @@
       <c r="S11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="24"/>
+      <c r="T11" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
       <c r="AH11" s="39"/>
       <c r="AI11" s="43"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
@@ -1604,8 +1605,8 @@
       <c r="P12" s="40"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
@@ -1622,7 +1623,7 @@
       <c r="AH12" s="39"/>
       <c r="AI12" s="43"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1661,7 @@
       <c r="AH13" s="39"/>
       <c r="AI13" s="43"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1699,7 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="43"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
@@ -1736,11 +1737,11 @@
       <c r="AH15" s="42"/>
       <c r="AI15" s="43"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -1771,89 +1772,89 @@
       <c r="AE16" s="24"/>
       <c r="AF16" s="24"/>
       <c r="AG16" s="41"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="46"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="43"/>
     </row>
-    <row r="17" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="51"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="49"/>
     </row>
-    <row r="18" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="54" t="s">
+      <c r="E19" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="55"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
     </row>
-    <row r="20" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="11" t="s">
         <v>19</v>
       </c>

--- a/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839F3DF-B98B-406B-B0A9-510FFCCBC988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D889845C-E6BB-47EC-AB1E-66A60672704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>No semaine</t>
   </si>
@@ -927,8 +927,8 @@
   </sheetPr>
   <dimension ref="B1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1435,7 +1435,9 @@
       <c r="T8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="41"/>
+      <c r="U8" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39"/>
       <c r="X8" s="40"/>
@@ -1489,9 +1491,15 @@
       <c r="T9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
+      <c r="U9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
       <c r="Z9" s="39"/>
@@ -1528,8 +1536,12 @@
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="39"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
+      <c r="V10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
       <c r="Z10" s="24"/>
@@ -1569,9 +1581,15 @@
       <c r="T11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
+      <c r="U11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="39"/>
@@ -1607,9 +1625,15 @@
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
+      <c r="U12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="24"/>
@@ -1741,27 +1765,63 @@
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="K16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="P16" s="40"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
+      <c r="Q16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="24"/>

--- a/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
+++ b/doc/2230_TubePitotDeporte-PLANNING_v1.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D889845C-E6BB-47EC-AB1E-66A60672704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EECE55-844C-4A99-8C01-BEB817E917F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>No semaine</t>
   </si>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -480,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -536,93 +553,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -634,6 +564,103 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,7 +955,7 @@
   <dimension ref="B1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1259,660 +1286,720 @@
       <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="30"/>
+      <c r="D5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="31"/>
       <c r="AJ5" s="1"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="37"/>
+      <c r="C6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="39"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="41"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="47"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="47"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="47"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="47"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="47"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="43"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="47"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="43"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="47"/>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="43"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG14" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="47"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="43"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="47"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="W16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="43"/>
+      <c r="C16" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="47"/>
     </row>
     <row r="17" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG17" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:35" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="52" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="54" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="2:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="11" t="s">
